--- a/biology/Histoire de la zoologie et de la botanique/Võ_Quý/Võ_Quý.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Võ_Quý/Võ_Quý.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>V%C3%B5_Qu%C3%BD</t>
+          <t>Võ_Quý</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Võ Quý est un ornithologue vietnamien, né le 31 décembre 1929 et mort le 10 janvier 2017[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Võ Quý est un ornithologue vietnamien, né le 31 décembre 1929 et mort le 10 janvier 2017.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>V%C3%B5_Qu%C3%BD</t>
+          <t>Võ_Quý</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Durant la guerre contre la France, il étudie en Chine. Il retourne au Viêt Nam en 1954 et participe à la fondation de l’université de Hanoï où il enseigne la zoologie. Il étudie les effets de la défoliation provoquée par l’armée américaine durant la guerre et l’impact des herbicides utilisés sur l’environnement. Võ Quý participe au programme gouvernemental de reboisement.
 Il contribue à la réintroduction de la Grue antigone, Grus antigone (Linnaeus, 1758), une espèce sévèrement affectée par la guerre et participe à la rédaction d’un traité sur la protection des oiseaux migrateurs.
